--- a/labor_planner/tests/data/outputs/individual_staff_summary.xlsx
+++ b/labor_planner/tests/data/outputs/individual_staff_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="50">
   <si>
     <t>Staff Planning</t>
   </si>
@@ -55,55 +55,73 @@
     <t>Processing Month =</t>
   </si>
   <si>
+    <t>Dec 27-Jan 23</t>
+  </si>
+  <si>
+    <t>Jan 24-Feb 20</t>
+  </si>
+  <si>
+    <t>Feb 21-Mar 27</t>
+  </si>
+  <si>
+    <t>Mar 28-Apr 24</t>
+  </si>
+  <si>
+    <t>Apr 25-May 22</t>
+  </si>
+  <si>
+    <t>May 23-Jun 26</t>
+  </si>
+  <si>
+    <t>Jun 27-Jul 24</t>
+  </si>
+  <si>
+    <t>Jul 25-Aug 21</t>
+  </si>
+  <si>
+    <t>Aug 22-Sep 30</t>
+  </si>
+  <si>
+    <t>Oct 1-Oct 23</t>
+  </si>
+  <si>
+    <t>Oct 24-Nov 20</t>
+  </si>
+  <si>
+    <t>Nov 21-Dec 25</t>
+  </si>
+  <si>
+    <t>Quarter 2 - FY18</t>
+  </si>
+  <si>
+    <t>Quarter 3 - FY18</t>
+  </si>
+  <si>
+    <t>Quarter 4 - FY18</t>
+  </si>
+  <si>
+    <t>Quarter 1 - FY19</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Dec 27-Jan 23</t>
-  </si>
-  <si>
-    <t>Jan 24-Feb 20</t>
-  </si>
-  <si>
-    <t>Feb 21-Mar 27</t>
-  </si>
-  <si>
-    <t>Mar 28-Apr 24</t>
-  </si>
-  <si>
-    <t>Apr 25-May 22</t>
-  </si>
-  <si>
-    <t>May 23-Jun 26</t>
-  </si>
-  <si>
-    <t>Jun 27-Jul 24</t>
-  </si>
-  <si>
-    <t>Jul 25-Aug 21</t>
-  </si>
-  <si>
-    <t>Aug 22-Sep 30</t>
-  </si>
-  <si>
-    <t>Oct 1-Oct 23</t>
-  </si>
-  <si>
-    <t>Oct 24-Nov 20</t>
-  </si>
-  <si>
-    <t>Nov 21-Dec 25</t>
-  </si>
-  <si>
-    <t>Quarter 2 - FY18</t>
-  </si>
-  <si>
-    <t>Quarter 3 - FY18</t>
-  </si>
-  <si>
-    <t>Quarter 4 - FY18</t>
-  </si>
-  <si>
-    <t>Quarter 1 - FY19</t>
+    <t>Dec 27-Dec 25</t>
+  </si>
+  <si>
+    <t>59534</t>
+  </si>
+  <si>
+    <t>Please Please Me</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>68344</t>
+  </si>
+  <si>
+    <t>With the Beatles</t>
   </si>
   <si>
     <t>84392</t>
@@ -112,25 +130,10 @@
     <t>Meet the Beatles!</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>65557</t>
   </si>
   <si>
     <t>Twist and Shout</t>
-  </si>
-  <si>
-    <t>59534</t>
-  </si>
-  <si>
-    <t>Please Please Me</t>
-  </si>
-  <si>
-    <t>68344</t>
-  </si>
-  <si>
-    <t>With the Beatles</t>
   </si>
   <si>
     <t>74589</t>
@@ -244,14 +247,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -589,25 +592,28 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
@@ -622,357 +628,357 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>176</v>
+      </c>
+      <c r="F7" s="6">
+        <v>160</v>
+      </c>
+      <c r="G7" s="6">
+        <v>160</v>
+      </c>
+      <c r="H7" s="6">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6">
+        <v>192</v>
+      </c>
+      <c r="J7" s="6">
+        <v>160</v>
+      </c>
+      <c r="K7" s="6">
+        <v>154</v>
+      </c>
+      <c r="L7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>200</v>
+      </c>
+      <c r="N7" s="6">
+        <v>160</v>
+      </c>
+      <c r="O7" s="6">
+        <v>144</v>
+      </c>
+      <c r="P7" s="6">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>176</v>
-      </c>
-      <c r="F7" s="5">
-        <v>160</v>
-      </c>
-      <c r="G7" s="5">
-        <v>160</v>
-      </c>
-      <c r="H7" s="5">
-        <v>160</v>
-      </c>
-      <c r="I7" s="5">
-        <v>192</v>
-      </c>
-      <c r="J7" s="5">
-        <v>160</v>
-      </c>
-      <c r="K7" s="5">
-        <v>154</v>
-      </c>
-      <c r="L7" s="5">
-        <v>200</v>
-      </c>
-      <c r="M7" s="5">
-        <v>200</v>
-      </c>
-      <c r="N7" s="5">
-        <v>160</v>
-      </c>
-      <c r="O7" s="5">
-        <v>144</v>
-      </c>
-      <c r="P7" s="5">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>24</v>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>8</v>
-      </c>
-      <c r="I9" s="5">
-        <v>8</v>
-      </c>
-      <c r="J9" s="5">
-        <v>8</v>
-      </c>
-      <c r="K9" s="5">
-        <v>8</v>
-      </c>
-      <c r="L9" s="5">
-        <v>8</v>
-      </c>
-      <c r="M9" s="5">
-        <v>8</v>
-      </c>
-      <c r="N9" s="5">
-        <v>8</v>
-      </c>
-      <c r="O9" s="5">
-        <v>8</v>
-      </c>
-      <c r="P9" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6">
+        <v>80</v>
+      </c>
+      <c r="G9" s="6">
+        <v>80</v>
+      </c>
+      <c r="H9" s="6">
+        <v>80</v>
+      </c>
+      <c r="I9" s="6">
         <v>96</v>
+      </c>
+      <c r="J9" s="6">
+        <v>80</v>
+      </c>
+      <c r="K9" s="6">
+        <v>77</v>
+      </c>
+      <c r="L9" s="6">
+        <v>100</v>
+      </c>
+      <c r="M9" s="6">
+        <v>100</v>
+      </c>
+      <c r="N9" s="6">
+        <v>80</v>
+      </c>
+      <c r="O9" s="6">
+        <v>72</v>
+      </c>
+      <c r="P9" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5">
-        <v>8</v>
-      </c>
-      <c r="J10" s="5">
-        <v>8</v>
-      </c>
-      <c r="K10" s="5">
-        <v>8</v>
-      </c>
-      <c r="L10" s="5">
-        <v>8</v>
-      </c>
-      <c r="M10" s="5">
-        <v>8</v>
-      </c>
-      <c r="N10" s="5">
-        <v>8</v>
-      </c>
-      <c r="O10" s="5">
-        <v>8</v>
-      </c>
-      <c r="P10" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="E10" s="6">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>80</v>
+      </c>
+      <c r="H10" s="6">
+        <v>80</v>
+      </c>
+      <c r="I10" s="6">
         <v>96</v>
+      </c>
+      <c r="J10" s="6">
+        <v>80</v>
+      </c>
+      <c r="K10" s="6">
+        <v>77</v>
+      </c>
+      <c r="L10" s="6">
+        <v>100</v>
+      </c>
+      <c r="M10" s="6">
+        <v>100</v>
+      </c>
+      <c r="N10" s="6">
+        <v>80</v>
+      </c>
+      <c r="O10" s="6">
+        <v>72</v>
+      </c>
+      <c r="P10" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5">
-        <v>88</v>
-      </c>
-      <c r="F11" s="5">
-        <v>80</v>
-      </c>
-      <c r="G11" s="5">
-        <v>80</v>
-      </c>
-      <c r="H11" s="5">
-        <v>80</v>
-      </c>
-      <c r="I11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8</v>
+      </c>
+      <c r="K11" s="6">
+        <v>8</v>
+      </c>
+      <c r="L11" s="6">
+        <v>8</v>
+      </c>
+      <c r="M11" s="6">
+        <v>8</v>
+      </c>
+      <c r="N11" s="6">
+        <v>8</v>
+      </c>
+      <c r="O11" s="6">
+        <v>8</v>
+      </c>
+      <c r="P11" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="6">
         <v>96</v>
-      </c>
-      <c r="J11" s="5">
-        <v>80</v>
-      </c>
-      <c r="K11" s="5">
-        <v>77</v>
-      </c>
-      <c r="L11" s="5">
-        <v>100</v>
-      </c>
-      <c r="M11" s="5">
-        <v>100</v>
-      </c>
-      <c r="N11" s="5">
-        <v>80</v>
-      </c>
-      <c r="O11" s="5">
-        <v>72</v>
-      </c>
-      <c r="P11" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5">
-        <v>88</v>
-      </c>
-      <c r="F12" s="5">
-        <v>80</v>
-      </c>
-      <c r="G12" s="5">
-        <v>80</v>
-      </c>
-      <c r="H12" s="5">
-        <v>80</v>
-      </c>
-      <c r="I12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6">
+        <v>8</v>
+      </c>
+      <c r="L12" s="6">
+        <v>8</v>
+      </c>
+      <c r="M12" s="6">
+        <v>8</v>
+      </c>
+      <c r="N12" s="6">
+        <v>8</v>
+      </c>
+      <c r="O12" s="6">
+        <v>8</v>
+      </c>
+      <c r="P12" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="6">
         <v>96</v>
-      </c>
-      <c r="J12" s="5">
-        <v>80</v>
-      </c>
-      <c r="K12" s="5">
-        <v>77</v>
-      </c>
-      <c r="L12" s="5">
-        <v>100</v>
-      </c>
-      <c r="M12" s="5">
-        <v>100</v>
-      </c>
-      <c r="N12" s="5">
-        <v>80</v>
-      </c>
-      <c r="O12" s="5">
-        <v>72</v>
-      </c>
-      <c r="P12" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0.2</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
-        <v>8</v>
-      </c>
-      <c r="G13" s="5">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5">
-        <v>8</v>
-      </c>
-      <c r="I13" s="5">
-        <v>8</v>
-      </c>
-      <c r="J13" s="5">
-        <v>8</v>
-      </c>
-      <c r="K13" s="5">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5">
-        <v>8</v>
-      </c>
-      <c r="M13" s="5">
-        <v>8</v>
-      </c>
-      <c r="N13" s="5">
-        <v>8</v>
-      </c>
-      <c r="O13" s="5">
-        <v>8</v>
-      </c>
-      <c r="P13" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
+        <v>8</v>
+      </c>
+      <c r="O13" s="6">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="6">
         <v>96</v>
       </c>
     </row>
@@ -1020,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1037,25 +1043,28 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
@@ -1070,304 +1079,304 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>176</v>
+      </c>
+      <c r="F7" s="6">
+        <v>160</v>
+      </c>
+      <c r="G7" s="6">
+        <v>160</v>
+      </c>
+      <c r="H7" s="6">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6">
+        <v>192</v>
+      </c>
+      <c r="J7" s="6">
+        <v>160</v>
+      </c>
+      <c r="K7" s="6">
+        <v>154</v>
+      </c>
+      <c r="L7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>200</v>
+      </c>
+      <c r="N7" s="6">
+        <v>160</v>
+      </c>
+      <c r="O7" s="6">
+        <v>144</v>
+      </c>
+      <c r="P7" s="6">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>176</v>
-      </c>
-      <c r="F7" s="5">
-        <v>160</v>
-      </c>
-      <c r="G7" s="5">
-        <v>160</v>
-      </c>
-      <c r="H7" s="5">
-        <v>160</v>
-      </c>
-      <c r="I7" s="5">
-        <v>192</v>
-      </c>
-      <c r="J7" s="5">
-        <v>160</v>
-      </c>
-      <c r="K7" s="5">
-        <v>154</v>
-      </c>
-      <c r="L7" s="5">
-        <v>200</v>
-      </c>
-      <c r="M7" s="5">
-        <v>200</v>
-      </c>
-      <c r="N7" s="5">
-        <v>160</v>
-      </c>
-      <c r="O7" s="5">
-        <v>144</v>
-      </c>
-      <c r="P7" s="5">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>24</v>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
         <v>88</v>
       </c>
-      <c r="F9" s="5">
-        <v>80</v>
-      </c>
-      <c r="G9" s="5">
-        <v>80</v>
-      </c>
-      <c r="H9" s="5">
-        <v>80</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="F9" s="6">
+        <v>80</v>
+      </c>
+      <c r="G9" s="6">
+        <v>80</v>
+      </c>
+      <c r="H9" s="6">
+        <v>80</v>
+      </c>
+      <c r="I9" s="6">
         <v>96</v>
       </c>
-      <c r="J9" s="5">
-        <v>80</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="6">
+        <v>80</v>
+      </c>
+      <c r="K9" s="6">
         <v>77</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>100</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>100</v>
       </c>
-      <c r="N9" s="5">
-        <v>80</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="6">
+        <v>80</v>
+      </c>
+      <c r="O9" s="6">
         <v>72</v>
       </c>
-      <c r="P9" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="P9" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="6">
         <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
         <v>88</v>
       </c>
-      <c r="F10" s="5">
-        <v>80</v>
-      </c>
-      <c r="G10" s="5">
-        <v>80</v>
-      </c>
-      <c r="H10" s="5">
-        <v>80</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>80</v>
+      </c>
+      <c r="H10" s="6">
+        <v>80</v>
+      </c>
+      <c r="I10" s="6">
         <v>96</v>
       </c>
-      <c r="J10" s="5">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="6">
+        <v>80</v>
+      </c>
+      <c r="K10" s="6">
         <v>77</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>100</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>100</v>
       </c>
-      <c r="N10" s="5">
-        <v>80</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="6">
+        <v>80</v>
+      </c>
+      <c r="O10" s="6">
         <v>72</v>
       </c>
-      <c r="P10" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="P10" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="6">
         <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>2</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2</v>
-      </c>
-      <c r="O11" s="5">
-        <v>2</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>2</v>
+      </c>
+      <c r="N11" s="6">
+        <v>2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>2</v>
-      </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2</v>
-      </c>
-      <c r="P12" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="6">
         <v>24</v>
       </c>
     </row>
@@ -1379,9 +1388,9 @@
     <mergeCell ref="N5:P5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A9" r:id="rId1" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A10" r:id="rId2" location="sheet_5!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A11" r:id="rId3" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A11" r:id="rId3" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A12" r:id="rId4" location="sheet_4!a1" tooltip="Click name to open project workbook."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1414,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1431,25 +1440,28 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
@@ -1464,304 +1476,304 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>176</v>
+      </c>
+      <c r="F7" s="6">
+        <v>160</v>
+      </c>
+      <c r="G7" s="6">
+        <v>160</v>
+      </c>
+      <c r="H7" s="6">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6">
+        <v>192</v>
+      </c>
+      <c r="J7" s="6">
+        <v>160</v>
+      </c>
+      <c r="K7" s="6">
+        <v>154</v>
+      </c>
+      <c r="L7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>200</v>
+      </c>
+      <c r="N7" s="6">
+        <v>160</v>
+      </c>
+      <c r="O7" s="6">
+        <v>144</v>
+      </c>
+      <c r="P7" s="6">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>176</v>
-      </c>
-      <c r="F7" s="5">
-        <v>160</v>
-      </c>
-      <c r="G7" s="5">
-        <v>160</v>
-      </c>
-      <c r="H7" s="5">
-        <v>160</v>
-      </c>
-      <c r="I7" s="5">
-        <v>192</v>
-      </c>
-      <c r="J7" s="5">
-        <v>160</v>
-      </c>
-      <c r="K7" s="5">
-        <v>154</v>
-      </c>
-      <c r="L7" s="5">
-        <v>200</v>
-      </c>
-      <c r="M7" s="5">
-        <v>200</v>
-      </c>
-      <c r="N7" s="5">
-        <v>160</v>
-      </c>
-      <c r="O7" s="5">
-        <v>144</v>
-      </c>
-      <c r="P7" s="5">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>24</v>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
         <v>88</v>
       </c>
-      <c r="F10" s="5">
-        <v>80</v>
-      </c>
-      <c r="G10" s="5">
-        <v>80</v>
-      </c>
-      <c r="H10" s="5">
-        <v>80</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>80</v>
+      </c>
+      <c r="H10" s="6">
+        <v>80</v>
+      </c>
+      <c r="I10" s="6">
         <v>96</v>
       </c>
-      <c r="J10" s="5">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="6">
+        <v>80</v>
+      </c>
+      <c r="K10" s="6">
         <v>77</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>100</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>100</v>
       </c>
-      <c r="N10" s="5">
-        <v>80</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="6">
+        <v>80</v>
+      </c>
+      <c r="O10" s="6">
         <v>72</v>
       </c>
-      <c r="P10" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="P10" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="6">
         <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6">
         <v>100</v>
       </c>
-      <c r="L11" s="5">
-        <v>5</v>
-      </c>
-      <c r="M11" s="5">
-        <v>5</v>
-      </c>
-      <c r="N11" s="5">
-        <v>5</v>
-      </c>
-      <c r="O11" s="5">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0.45</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>5</v>
-      </c>
-      <c r="N12" s="5">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5</v>
+      </c>
+      <c r="K12" s="6">
+        <v>5</v>
+      </c>
+      <c r="L12" s="6">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6">
+        <v>5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="6">
         <v>60</v>
       </c>
     </row>
@@ -1773,8 +1785,8 @@
     <mergeCell ref="N5:P5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A10" r:id="rId2" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A9" r:id="rId1" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A10" r:id="rId2" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A11" r:id="rId3" location="sheet_6!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A12" r:id="rId4" location="sheet_7!a1" tooltip="Click name to open project workbook."/>
   </hyperlinks>
@@ -1808,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1825,25 +1837,28 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
@@ -1858,410 +1873,410 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>176</v>
+      </c>
+      <c r="F7" s="6">
+        <v>160</v>
+      </c>
+      <c r="G7" s="6">
+        <v>160</v>
+      </c>
+      <c r="H7" s="6">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6">
+        <v>192</v>
+      </c>
+      <c r="J7" s="6">
+        <v>160</v>
+      </c>
+      <c r="K7" s="6">
+        <v>154</v>
+      </c>
+      <c r="L7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>200</v>
+      </c>
+      <c r="N7" s="6">
+        <v>160</v>
+      </c>
+      <c r="O7" s="6">
+        <v>144</v>
+      </c>
+      <c r="P7" s="6">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>176</v>
-      </c>
-      <c r="F7" s="5">
-        <v>160</v>
-      </c>
-      <c r="G7" s="5">
-        <v>160</v>
-      </c>
-      <c r="H7" s="5">
-        <v>160</v>
-      </c>
-      <c r="I7" s="5">
-        <v>192</v>
-      </c>
-      <c r="J7" s="5">
-        <v>160</v>
-      </c>
-      <c r="K7" s="5">
-        <v>154</v>
-      </c>
-      <c r="L7" s="5">
-        <v>200</v>
-      </c>
-      <c r="M7" s="5">
-        <v>200</v>
-      </c>
-      <c r="N7" s="5">
-        <v>160</v>
-      </c>
-      <c r="O7" s="5">
-        <v>144</v>
-      </c>
-      <c r="P7" s="5">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>24</v>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5">
-        <v>4</v>
-      </c>
-      <c r="M10" s="5">
-        <v>4</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4</v>
-      </c>
-      <c r="O10" s="5">
-        <v>4</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4</v>
+      </c>
+      <c r="N10" s="6">
+        <v>4</v>
+      </c>
+      <c r="O10" s="6">
+        <v>4</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>2</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5">
-        <v>4</v>
-      </c>
-      <c r="M12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4</v>
+      </c>
+      <c r="M12" s="6">
         <v>100</v>
       </c>
-      <c r="N12" s="5">
-        <v>4</v>
-      </c>
-      <c r="O12" s="5">
-        <v>4</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="N12" s="6">
+        <v>4</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0.2</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6">
         <v>88</v>
       </c>
-      <c r="F13" s="5">
-        <v>80</v>
-      </c>
-      <c r="G13" s="5">
-        <v>80</v>
-      </c>
-      <c r="H13" s="5">
-        <v>80</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="F13" s="6">
+        <v>80</v>
+      </c>
+      <c r="G13" s="6">
+        <v>80</v>
+      </c>
+      <c r="H13" s="6">
+        <v>80</v>
+      </c>
+      <c r="I13" s="6">
         <v>96</v>
       </c>
-      <c r="J13" s="5">
-        <v>80</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="J13" s="6">
+        <v>80</v>
+      </c>
+      <c r="K13" s="6">
         <v>77</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>100</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>100</v>
       </c>
-      <c r="N13" s="5">
-        <v>80</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="N13" s="6">
+        <v>80</v>
+      </c>
+      <c r="O13" s="6">
         <v>72</v>
       </c>
-      <c r="P13" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="P13" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="6">
         <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0.45</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>4</v>
-      </c>
-      <c r="H14" s="5">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4</v>
-      </c>
-      <c r="J14" s="5">
-        <v>4</v>
-      </c>
-      <c r="K14" s="5">
-        <v>4</v>
-      </c>
-      <c r="L14" s="5">
-        <v>4</v>
-      </c>
-      <c r="M14" s="5">
-        <v>4</v>
-      </c>
-      <c r="N14" s="5">
-        <v>4</v>
-      </c>
-      <c r="O14" s="5">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4</v>
+      </c>
+      <c r="O14" s="6">
         <v>40</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="6">
         <v>40</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="6">
         <v>121</v>
       </c>
     </row>
@@ -2273,9 +2288,9 @@
     <mergeCell ref="N5:P5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A9" r:id="rId1" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A10" r:id="rId2" location="sheet_5!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A11" r:id="rId3" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A11" r:id="rId3" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A12" r:id="rId4" location="sheet_6!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A13" r:id="rId5" location="sheet_4!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A14" r:id="rId6" location="sheet_7!a1" tooltip="Click name to open project workbook."/>
